--- a/result/LR/sumen/sumen_LR.xlsx
+++ b/result/LR/sumen/sumen_LR.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="40" yWindow="460" windowWidth="28160" windowHeight="16820" tabRatio="500" activeTab="5"/>
+    <workbookView xWindow="40" yWindow="460" windowWidth="28160" windowHeight="16820" tabRatio="500" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="result" sheetId="13" r:id="rId1"/>
@@ -19,12 +19,8 @@
     <sheet name="sumen_3_classic" sheetId="4" r:id="rId5"/>
     <sheet name="sumen_3_active" sheetId="3" r:id="rId6"/>
     <sheet name="sumen_3_res" sheetId="5" r:id="rId7"/>
-    <sheet name="2_c_ws_model" sheetId="8" r:id="rId8"/>
-    <sheet name="2_a_ws_model" sheetId="7" r:id="rId9"/>
-    <sheet name="3_c_ws_model" sheetId="10" r:id="rId10"/>
-    <sheet name="3_a_ws_model" sheetId="9" r:id="rId11"/>
-    <sheet name="2_sumen_min_limit" sheetId="11" r:id="rId12"/>
-    <sheet name="3_sumen_min_limit" sheetId="12" r:id="rId13"/>
+    <sheet name="2_sumen_min_limit" sheetId="11" r:id="rId8"/>
+    <sheet name="3_sumen_min_limit" sheetId="12" r:id="rId9"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -39,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="35">
   <si>
     <t>Presicion</t>
   </si>
@@ -717,2243 +713,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="15" width="20.33203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N1" t="s">
-        <v>11</v>
-      </c>
-      <c r="O1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>0.77113556778389103</v>
-      </c>
-      <c r="C2">
-        <v>0.565169569202566</v>
-      </c>
-      <c r="D2">
-        <v>0.65227969956627496</v>
-      </c>
-      <c r="E2">
-        <f>AVERAGE(F2:O2)</f>
-        <v>0.12815562845996817</v>
-      </c>
-      <c r="F2">
-        <v>0.12821551837467399</v>
-      </c>
-      <c r="G2">
-        <v>0.12761792747091699</v>
-      </c>
-      <c r="H2">
-        <v>0.12924404119100799</v>
-      </c>
-      <c r="I2">
-        <v>0.12782942707491299</v>
-      </c>
-      <c r="J2">
-        <v>0.12808260361151999</v>
-      </c>
-      <c r="K2">
-        <v>0.12719615741212001</v>
-      </c>
-      <c r="L2">
-        <v>0.127698972711315</v>
-      </c>
-      <c r="M2">
-        <v>0.12765450346316301</v>
-      </c>
-      <c r="N2">
-        <v>0.12864526550914199</v>
-      </c>
-      <c r="O2">
-        <v>0.12937186778091</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>0.77334083239594997</v>
-      </c>
-      <c r="C3">
-        <v>0.56421830118998695</v>
-      </c>
-      <c r="D3">
-        <v>0.65243179122182604</v>
-      </c>
-      <c r="E3">
-        <f t="shared" ref="E3:E10" si="0">AVERAGE(F3:O3)</f>
-        <v>0.12769901791911789</v>
-      </c>
-      <c r="F3">
-        <v>0.12748522936197701</v>
-      </c>
-      <c r="G3">
-        <v>0.12771695658236701</v>
-      </c>
-      <c r="H3">
-        <v>0.127990652534785</v>
-      </c>
-      <c r="I3">
-        <v>0.12802794247805299</v>
-      </c>
-      <c r="J3">
-        <v>0.12767860125899699</v>
-      </c>
-      <c r="K3">
-        <v>0.12726414235283201</v>
-      </c>
-      <c r="L3">
-        <v>0.12795782031219</v>
-      </c>
-      <c r="M3">
-        <v>0.12776858421925799</v>
-      </c>
-      <c r="N3">
-        <v>0.12740123217160201</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>0.77100770003347796</v>
-      </c>
-      <c r="C4">
-        <v>0.56321839080459701</v>
-      </c>
-      <c r="D4">
-        <v>0.65093273035613297</v>
-      </c>
-      <c r="E4">
-        <f t="shared" si="0"/>
-        <v>0.12809054233941475</v>
-      </c>
-      <c r="F4">
-        <v>0.12773926097101501</v>
-      </c>
-      <c r="G4">
-        <v>0.12827833015493301</v>
-      </c>
-      <c r="H4">
-        <v>0.12779582122221</v>
-      </c>
-      <c r="I4">
-        <v>0.128422339878911</v>
-      </c>
-      <c r="J4">
-        <v>0.12758674986517499</v>
-      </c>
-      <c r="K4">
-        <v>0.127991322754687</v>
-      </c>
-      <c r="L4">
-        <v>0.12851871976255599</v>
-      </c>
-      <c r="M4">
-        <v>0.12839179410583099</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>0.77128862094951001</v>
-      </c>
-      <c r="C5">
-        <v>0.55837424986361095</v>
-      </c>
-      <c r="D5">
-        <v>0.64778481012658196</v>
-      </c>
-      <c r="E5">
-        <f t="shared" si="0"/>
-        <v>0.12649363360291288</v>
-      </c>
-      <c r="F5">
-        <v>0.12675239919408701</v>
-      </c>
-      <c r="G5">
-        <v>0.12650377283081601</v>
-      </c>
-      <c r="H5">
-        <v>0.12672147659317401</v>
-      </c>
-      <c r="I5">
-        <v>0.126371521100687</v>
-      </c>
-      <c r="J5">
-        <v>0.12587732489321199</v>
-      </c>
-      <c r="K5">
-        <v>0.12688070793835299</v>
-      </c>
-      <c r="L5">
-        <v>0.12634823267006101</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>0.76782608695652099</v>
-      </c>
-      <c r="C6">
-        <v>0.55049875311720697</v>
-      </c>
-      <c r="D6">
-        <v>0.64124909222948401</v>
-      </c>
-      <c r="E6">
-        <f t="shared" si="0"/>
-        <v>0.12741885956865434</v>
-      </c>
-      <c r="F6">
-        <v>0.125787857636185</v>
-      </c>
-      <c r="G6">
-        <v>0.12746846439519799</v>
-      </c>
-      <c r="H6">
-        <v>0.12702925240051499</v>
-      </c>
-      <c r="I6">
-        <v>0.12867021323189001</v>
-      </c>
-      <c r="J6">
-        <v>0.12714695566692599</v>
-      </c>
-      <c r="K6">
-        <v>0.12841041408121201</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>0.76684972541188201</v>
-      </c>
-      <c r="C7">
-        <v>0.54237288135593198</v>
-      </c>
-      <c r="D7">
-        <v>0.63536711478800401</v>
-      </c>
-      <c r="E7">
-        <f t="shared" si="0"/>
-        <v>0.1236404809109642</v>
-      </c>
-      <c r="F7">
-        <v>0.12381783371747999</v>
-      </c>
-      <c r="G7">
-        <v>0.1234381605966</v>
-      </c>
-      <c r="H7">
-        <v>0.124180512086282</v>
-      </c>
-      <c r="I7">
-        <v>0.12354313413493</v>
-      </c>
-      <c r="J7">
-        <v>0.123222764019529</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>0.76899128268991201</v>
-      </c>
-      <c r="C8">
-        <v>0.54357394366197098</v>
-      </c>
-      <c r="D8">
-        <v>0.63692625064466202</v>
-      </c>
-      <c r="E8">
-        <f t="shared" si="0"/>
-        <v>0.12402194262702124</v>
-      </c>
-      <c r="F8">
-        <v>0.124873512117692</v>
-      </c>
-      <c r="G8">
-        <v>0.122971687456481</v>
-      </c>
-      <c r="H8">
-        <v>0.124375880873936</v>
-      </c>
-      <c r="I8">
-        <v>0.123866690059976</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>0.75943396226415005</v>
-      </c>
-      <c r="C9">
-        <v>0.53607103218645902</v>
-      </c>
-      <c r="D9">
-        <v>0.62849707221860696</v>
-      </c>
-      <c r="E9">
-        <f t="shared" si="0"/>
-        <v>0.1235013696971</v>
-      </c>
-      <c r="F9">
-        <v>0.12340708253786099</v>
-      </c>
-      <c r="G9">
-        <v>0.123388029459404</v>
-      </c>
-      <c r="H9">
-        <v>0.123708997094035</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>0.76498800959232605</v>
-      </c>
-      <c r="C10">
-        <v>0.53748946925021002</v>
-      </c>
-      <c r="D10">
-        <v>0.63137060860959904</v>
-      </c>
-      <c r="E10">
-        <f t="shared" si="0"/>
-        <v>0.1245204354642605</v>
-      </c>
-      <c r="F10">
-        <v>0.125612143947093</v>
-      </c>
-      <c r="G10">
-        <v>0.123428726981428</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>0.73904761904761895</v>
-      </c>
-      <c r="C11">
-        <v>0.51187335092348196</v>
-      </c>
-      <c r="D11">
-        <v>0.60483242400623505</v>
-      </c>
-      <c r="F11">
-        <v>0.12384969137103199</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12">
-        <v>0.765390940712524</v>
-      </c>
-      <c r="C12">
-        <v>0.54728599415560197</v>
-      </c>
-      <c r="D12">
-        <v>0.63816715937674096</v>
-      </c>
-      <c r="F12">
-        <v>0.12575405292291</v>
-      </c>
-      <c r="G12">
-        <v>0.12564578399201601</v>
-      </c>
-      <c r="H12">
-        <v>0.12638082924949301</v>
-      </c>
-      <c r="I12">
-        <v>0.126675895422766</v>
-      </c>
-      <c r="J12">
-        <v>0.12659916655256001</v>
-      </c>
-      <c r="K12">
-        <v>0.12754854890784101</v>
-      </c>
-      <c r="L12">
-        <v>0.12763093636403</v>
-      </c>
-      <c r="M12">
-        <v>0.127938293929417</v>
-      </c>
-      <c r="N12">
-        <v>0.128023248840372</v>
-      </c>
-      <c r="O12">
-        <v>0.12937186778091</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13">
-        <v>0.77334083239594997</v>
-      </c>
-      <c r="C13">
-        <v>0.565169569202566</v>
-      </c>
-      <c r="D13">
-        <v>0.65243179122182604</v>
-      </c>
-      <c r="E13">
-        <f>SLOPE(E1:E10,A1:A10)</f>
-        <v>-6.3540114609366707E-4</v>
-      </c>
-      <c r="F13">
-        <v>0.12821551837467399</v>
-      </c>
-      <c r="G13">
-        <v>0.12827833015493301</v>
-      </c>
-      <c r="H13">
-        <v>0.12924404119100799</v>
-      </c>
-      <c r="I13">
-        <v>0.12867021323189001</v>
-      </c>
-      <c r="J13">
-        <v>0.12808260361151999</v>
-      </c>
-      <c r="K13">
-        <v>0.12841041408121201</v>
-      </c>
-      <c r="L13">
-        <v>0.12851871976255599</v>
-      </c>
-      <c r="M13">
-        <v>0.12839179410583099</v>
-      </c>
-      <c r="N13">
-        <v>0.12864526550914199</v>
-      </c>
-      <c r="O13">
-        <v>0.12937186778091</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14">
-        <v>-2.5030203843751202E-3</v>
-      </c>
-      <c r="C14">
-        <v>-5.1820083124065304E-3</v>
-      </c>
-      <c r="D14">
-        <v>-4.39448306000497E-3</v>
-      </c>
-      <c r="F14">
-        <v>-4.9497950454922498E-4</v>
-      </c>
-      <c r="G14">
-        <v>-7.2370801596608099E-4</v>
-      </c>
-      <c r="H14">
-        <v>-8.0187284027982003E-4</v>
-      </c>
-      <c r="I14">
-        <v>-7.36069799216977E-4</v>
-      </c>
-      <c r="J14">
-        <v>-7.8867313451810004E-4</v>
-      </c>
-      <c r="K14">
-        <v>2.0450789237056699E-4</v>
-      </c>
-      <c r="L14">
-        <v>-3.4913206733941599E-4</v>
-      </c>
-      <c r="M14">
-        <v>3.6864532133444502E-4</v>
-      </c>
-      <c r="N14">
-        <v>-1.24403333753964E-3</v>
-      </c>
-      <c r="O14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A15" t="s">
-        <v>16</v>
-      </c>
-      <c r="F15">
-        <v>3281</v>
-      </c>
-      <c r="G15">
-        <v>1735</v>
-      </c>
-      <c r="H15">
-        <v>2578</v>
-      </c>
-      <c r="I15">
-        <v>1915</v>
-      </c>
-      <c r="J15">
-        <v>2267</v>
-      </c>
-      <c r="K15">
-        <v>1645</v>
-      </c>
-      <c r="L15">
-        <v>1921</v>
-      </c>
-      <c r="M15">
-        <v>1725</v>
-      </c>
-      <c r="N15">
-        <v>3127</v>
-      </c>
-      <c r="O15">
-        <v>2379</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F16">
-        <v>648</v>
-      </c>
-      <c r="G16">
-        <v>352</v>
-      </c>
-      <c r="H16">
-        <v>505</v>
-      </c>
-      <c r="I16">
-        <v>381</v>
-      </c>
-      <c r="J16">
-        <v>464</v>
-      </c>
-      <c r="K16">
-        <v>296</v>
-      </c>
-      <c r="L16">
-        <v>366</v>
-      </c>
-      <c r="M16">
-        <v>343</v>
-      </c>
-      <c r="N16">
-        <v>632</v>
-      </c>
-      <c r="O16">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="17" spans="6:15" x14ac:dyDescent="0.15">
-      <c r="F17">
-        <v>5.0632716049382704</v>
-      </c>
-      <c r="G17">
-        <v>4.9289772727272698</v>
-      </c>
-      <c r="H17">
-        <v>5.1049504950494997</v>
-      </c>
-      <c r="I17">
-        <v>5.0262467191600999</v>
-      </c>
-      <c r="J17">
-        <v>4.88577586206896</v>
-      </c>
-      <c r="K17">
-        <v>5.5574324324324298</v>
-      </c>
-      <c r="L17">
-        <v>5.24863387978142</v>
-      </c>
-      <c r="M17">
-        <v>5.0291545189504303</v>
-      </c>
-      <c r="N17">
-        <v>4.9477848101265796</v>
-      </c>
-      <c r="O17">
-        <v>5.0402542372881296</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15" customWidth="1"/>
-    <col min="6" max="15" width="20.33203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N1" t="s">
-        <v>11</v>
-      </c>
-      <c r="O1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>0.74550189393939303</v>
-      </c>
-      <c r="C2">
-        <v>0.57726856095325296</v>
-      </c>
-      <c r="D2">
-        <v>0.65068705444777297</v>
-      </c>
-      <c r="E2">
-        <f>AVERAGE(F2:O2)</f>
-        <v>0.13589970487930109</v>
-      </c>
-      <c r="F2">
-        <v>0.13576751556102201</v>
-      </c>
-      <c r="G2">
-        <v>0.13553658147297801</v>
-      </c>
-      <c r="H2">
-        <v>0.136942402742321</v>
-      </c>
-      <c r="I2">
-        <v>0.13564740527285801</v>
-      </c>
-      <c r="J2">
-        <v>0.13561386476141701</v>
-      </c>
-      <c r="K2">
-        <v>0.135449912880023</v>
-      </c>
-      <c r="L2">
-        <v>0.135502691832949</v>
-      </c>
-      <c r="M2">
-        <v>0.13551129309825699</v>
-      </c>
-      <c r="N2">
-        <v>0.13627498797764501</v>
-      </c>
-      <c r="O2">
-        <v>0.13675039319354099</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>0.74773574853489599</v>
-      </c>
-      <c r="C3">
-        <v>0.57591300779647103</v>
-      </c>
-      <c r="D3">
-        <v>0.65067222994900298</v>
-      </c>
-      <c r="E3">
-        <f t="shared" ref="E3:E10" si="0">AVERAGE(F3:O3)</f>
-        <v>0.1342548762971689</v>
-      </c>
-      <c r="F3">
-        <v>0.13440345099550999</v>
-      </c>
-      <c r="G3">
-        <v>0.134206165751632</v>
-      </c>
-      <c r="H3">
-        <v>0.13451307534705401</v>
-      </c>
-      <c r="I3">
-        <v>0.13444177643139801</v>
-      </c>
-      <c r="J3">
-        <v>0.13442892431047301</v>
-      </c>
-      <c r="K3">
-        <v>0.13346172142482801</v>
-      </c>
-      <c r="L3">
-        <v>0.13431639236988799</v>
-      </c>
-      <c r="M3">
-        <v>0.134234980021818</v>
-      </c>
-      <c r="N3">
-        <v>0.134287400021919</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>0.74517252295030001</v>
-      </c>
-      <c r="C4">
-        <v>0.57569087796527196</v>
-      </c>
-      <c r="D4">
-        <v>0.64955849889624695</v>
-      </c>
-      <c r="E4">
-        <f t="shared" si="0"/>
-        <v>0.13376942439404399</v>
-      </c>
-      <c r="F4">
-        <v>0.13393659618434101</v>
-      </c>
-      <c r="G4">
-        <v>0.13371595009366</v>
-      </c>
-      <c r="H4">
-        <v>0.13429738384231399</v>
-      </c>
-      <c r="I4">
-        <v>0.13390588290268801</v>
-      </c>
-      <c r="J4">
-        <v>0.13331724426986799</v>
-      </c>
-      <c r="K4">
-        <v>0.133277214461686</v>
-      </c>
-      <c r="L4">
-        <v>0.13399988461870299</v>
-      </c>
-      <c r="M4">
-        <v>0.13370523877909199</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>0.74563591022443798</v>
-      </c>
-      <c r="C5">
-        <v>0.57092198581560205</v>
-      </c>
-      <c r="D5">
-        <v>0.64668623513054202</v>
-      </c>
-      <c r="E5">
-        <f t="shared" si="0"/>
-        <v>0.13284861049164828</v>
-      </c>
-      <c r="F5">
-        <v>0.133019796893733</v>
-      </c>
-      <c r="G5">
-        <v>0.132689190396964</v>
-      </c>
-      <c r="H5">
-        <v>0.13304194613075099</v>
-      </c>
-      <c r="I5">
-        <v>0.132757654511684</v>
-      </c>
-      <c r="J5">
-        <v>0.132289518695933</v>
-      </c>
-      <c r="K5">
-        <v>0.133420220778286</v>
-      </c>
-      <c r="L5">
-        <v>0.13272194603418699</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>0.74385245901639296</v>
-      </c>
-      <c r="C6">
-        <v>0.56577306733166999</v>
-      </c>
-      <c r="D6">
-        <v>0.64270538243625996</v>
-      </c>
-      <c r="E6">
-        <f t="shared" si="0"/>
-        <v>0.13295878180289933</v>
-      </c>
-      <c r="F6">
-        <v>0.13089043117151</v>
-      </c>
-      <c r="G6">
-        <v>0.133702879252448</v>
-      </c>
-      <c r="H6">
-        <v>0.13190540390066599</v>
-      </c>
-      <c r="I6">
-        <v>0.13402915009640101</v>
-      </c>
-      <c r="J6">
-        <v>0.13263527686018101</v>
-      </c>
-      <c r="K6">
-        <v>0.13458954953619001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>0.74213245655237203</v>
-      </c>
-      <c r="C7">
-        <v>0.55790960451977401</v>
-      </c>
-      <c r="D7">
-        <v>0.63696835315460598</v>
-      </c>
-      <c r="E7">
-        <f t="shared" si="0"/>
-        <v>0.1283809494626352</v>
-      </c>
-      <c r="F7">
-        <v>0.128692970347031</v>
-      </c>
-      <c r="G7">
-        <v>0.127672149236533</v>
-      </c>
-      <c r="H7">
-        <v>0.12902562549716901</v>
-      </c>
-      <c r="I7">
-        <v>0.128205068836766</v>
-      </c>
-      <c r="J7">
-        <v>0.12830893339567701</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>0.74227405247813405</v>
-      </c>
-      <c r="C8">
-        <v>0.56029929577464699</v>
-      </c>
-      <c r="D8">
-        <v>0.63857536995234498</v>
-      </c>
-      <c r="E8">
-        <f t="shared" si="0"/>
-        <v>0.12863504114815377</v>
-      </c>
-      <c r="F8">
-        <v>0.12971381239477101</v>
-      </c>
-      <c r="G8">
-        <v>0.127660797755559</v>
-      </c>
-      <c r="H8">
-        <v>0.12895259105996201</v>
-      </c>
-      <c r="I8">
-        <v>0.12821296338232299</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>0.73343151693667097</v>
-      </c>
-      <c r="C9">
-        <v>0.55271920088790205</v>
-      </c>
-      <c r="D9">
-        <v>0.63037974683544296</v>
-      </c>
-      <c r="E9">
-        <f t="shared" si="0"/>
-        <v>0.12869679213417198</v>
-      </c>
-      <c r="F9">
-        <v>0.12862303193198901</v>
-      </c>
-      <c r="G9">
-        <v>0.12853439163319999</v>
-      </c>
-      <c r="H9">
-        <v>0.128932952837327</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>0.73259668508287201</v>
-      </c>
-      <c r="C10">
-        <v>0.55855096882898003</v>
-      </c>
-      <c r="D10">
-        <v>0.63384321223709295</v>
-      </c>
-      <c r="E10">
-        <f t="shared" si="0"/>
-        <v>0.13038939929064</v>
-      </c>
-      <c r="F10">
-        <v>0.13191285938712799</v>
-      </c>
-      <c r="G10">
-        <v>0.12886593919415201</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>0.70370370370370305</v>
-      </c>
-      <c r="C11">
-        <v>0.52638522427440604</v>
-      </c>
-      <c r="D11">
-        <v>0.60226415094339603</v>
-      </c>
-      <c r="F11">
-        <v>0.13049620935529299</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12">
-        <v>0.73820369494191695</v>
-      </c>
-      <c r="C12">
-        <v>0.56214317941479797</v>
-      </c>
-      <c r="D12">
-        <v>0.63823402339827096</v>
-      </c>
-      <c r="F12">
-        <v>0.13174566742223301</v>
-      </c>
-      <c r="G12">
-        <v>0.131398227198569</v>
-      </c>
-      <c r="H12">
-        <v>0.13220142266969501</v>
-      </c>
-      <c r="I12">
-        <v>0.132457128776303</v>
-      </c>
-      <c r="J12">
-        <v>0.132765627048925</v>
-      </c>
-      <c r="K12">
-        <v>0.13403972381620299</v>
-      </c>
-      <c r="L12">
-        <v>0.13413522871393199</v>
-      </c>
-      <c r="M12">
-        <v>0.13448383729972199</v>
-      </c>
-      <c r="N12">
-        <v>0.135281193999782</v>
-      </c>
-      <c r="O12">
-        <v>0.13675039319354099</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13">
-        <v>0.74773574853489599</v>
-      </c>
-      <c r="C13">
-        <v>0.57726856095325296</v>
-      </c>
-      <c r="D13">
-        <v>0.65068705444777297</v>
-      </c>
-      <c r="E13">
-        <f>SLOPE(E1:E10,A1:A10)</f>
-        <v>-8.9086503940714325E-4</v>
-      </c>
-      <c r="F13">
-        <v>0.13576751556102201</v>
-      </c>
-      <c r="G13">
-        <v>0.13553658147297801</v>
-      </c>
-      <c r="H13">
-        <v>0.136942402742321</v>
-      </c>
-      <c r="I13">
-        <v>0.13564740527285801</v>
-      </c>
-      <c r="J13">
-        <v>0.13561386476141701</v>
-      </c>
-      <c r="K13">
-        <v>0.135449912880023</v>
-      </c>
-      <c r="L13">
-        <v>0.135502691832949</v>
-      </c>
-      <c r="M13">
-        <v>0.13551129309825699</v>
-      </c>
-      <c r="N13">
-        <v>0.13627498797764501</v>
-      </c>
-      <c r="O13">
-        <v>0.13675039319354099</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14">
-        <v>-3.3495015882209398E-3</v>
-      </c>
-      <c r="C14">
-        <v>-4.4489346739616503E-3</v>
-      </c>
-      <c r="D14">
-        <v>-4.1186220645032098E-3</v>
-      </c>
-      <c r="F14">
-        <v>-6.2763110723247704E-4</v>
-      </c>
-      <c r="G14">
-        <v>-1.0137539551205599E-3</v>
-      </c>
-      <c r="H14">
-        <v>-1.2002427147134499E-3</v>
-      </c>
-      <c r="I14">
-        <v>-1.2376240595412501E-3</v>
-      </c>
-      <c r="J14">
-        <v>-1.2266664215288001E-3</v>
-      </c>
-      <c r="K14">
-        <v>-1.7622273342063601E-4</v>
-      </c>
-      <c r="L14">
-        <v>-8.6587451474741395E-4</v>
-      </c>
-      <c r="M14">
-        <v>-9.0302715958275005E-4</v>
-      </c>
-      <c r="N14">
-        <v>-1.9875879557260901E-3</v>
-      </c>
-      <c r="O14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A15" t="s">
-        <v>16</v>
-      </c>
-      <c r="F15">
-        <v>3281</v>
-      </c>
-      <c r="G15">
-        <v>1735</v>
-      </c>
-      <c r="H15">
-        <v>2578</v>
-      </c>
-      <c r="I15">
-        <v>1915</v>
-      </c>
-      <c r="J15">
-        <v>2267</v>
-      </c>
-      <c r="K15">
-        <v>1645</v>
-      </c>
-      <c r="L15">
-        <v>1921</v>
-      </c>
-      <c r="M15">
-        <v>1725</v>
-      </c>
-      <c r="N15">
-        <v>3127</v>
-      </c>
-      <c r="O15">
-        <v>2379</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F16">
-        <v>648</v>
-      </c>
-      <c r="G16">
-        <v>352</v>
-      </c>
-      <c r="H16">
-        <v>505</v>
-      </c>
-      <c r="I16">
-        <v>381</v>
-      </c>
-      <c r="J16">
-        <v>464</v>
-      </c>
-      <c r="K16">
-        <v>296</v>
-      </c>
-      <c r="L16">
-        <v>366</v>
-      </c>
-      <c r="M16">
-        <v>343</v>
-      </c>
-      <c r="N16">
-        <v>632</v>
-      </c>
-      <c r="O16">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="17" spans="6:15" x14ac:dyDescent="0.15">
-      <c r="F17">
-        <v>5.0632716049382704</v>
-      </c>
-      <c r="G17">
-        <v>4.9289772727272698</v>
-      </c>
-      <c r="H17">
-        <v>5.1049504950494997</v>
-      </c>
-      <c r="I17">
-        <v>5.0262467191600999</v>
-      </c>
-      <c r="J17">
-        <v>4.88577586206896</v>
-      </c>
-      <c r="K17">
-        <v>5.5574324324324298</v>
-      </c>
-      <c r="L17">
-        <v>5.24863387978142</v>
-      </c>
-      <c r="M17">
-        <v>5.0291545189504303</v>
-      </c>
-      <c r="N17">
-        <v>4.9477848101265796</v>
-      </c>
-      <c r="O17">
-        <v>5.0402542372881296</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="14" width="20.33203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>0.85894206549118302</v>
-      </c>
-      <c r="C2">
-        <v>0.44986807387862798</v>
-      </c>
-      <c r="D2">
-        <v>0.59047619047619004</v>
-      </c>
-      <c r="E2">
-        <v>0.107328979494343</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>0.92805755395683398</v>
-      </c>
-      <c r="C3">
-        <v>0.60139860139860102</v>
-      </c>
-      <c r="D3">
-        <v>0.72984441301272895</v>
-      </c>
-      <c r="F3">
-        <v>0.104145657267431</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>0.91052631578947296</v>
-      </c>
-      <c r="C4">
-        <v>0.56260162601625996</v>
-      </c>
-      <c r="D4">
-        <v>0.69547738693467298</v>
-      </c>
-      <c r="G4">
-        <v>0.10025311457335701</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>0.89969604863221797</v>
-      </c>
-      <c r="C5">
-        <v>0.62978723404255299</v>
-      </c>
-      <c r="D5">
-        <v>0.740926157697121</v>
-      </c>
-      <c r="H5">
-        <v>0.10141868087702401</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>0.88767123287671201</v>
-      </c>
-      <c r="C6">
-        <v>0.57857142857142796</v>
-      </c>
-      <c r="D6">
-        <v>0.70054054054054005</v>
-      </c>
-      <c r="I6">
-        <v>0.106722352971674</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>0.897887323943662</v>
-      </c>
-      <c r="C7">
-        <v>0.67819148936170204</v>
-      </c>
-      <c r="D7">
-        <v>0.77272727272727204</v>
-      </c>
-      <c r="J7">
-        <v>0.10010013843217801</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>0.89425981873111704</v>
-      </c>
-      <c r="C8">
-        <v>0.64628820960698596</v>
-      </c>
-      <c r="D8">
-        <v>0.75031685678073501</v>
-      </c>
-      <c r="K8">
-        <v>0.103191352122153</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>0.88888888888888795</v>
-      </c>
-      <c r="C9">
-        <v>0.62411347517730498</v>
-      </c>
-      <c r="D9">
-        <v>0.73333333333333295</v>
-      </c>
-      <c r="L9">
-        <v>0.105098097705886</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>0.92259414225941405</v>
-      </c>
-      <c r="C10">
-        <v>0.56178343949044496</v>
-      </c>
-      <c r="D10">
-        <v>0.69833729216151996</v>
-      </c>
-      <c r="M10">
-        <v>0.10325806928477201</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>0.85977011494252797</v>
-      </c>
-      <c r="C11">
-        <v>0.64371772805507699</v>
-      </c>
-      <c r="D11">
-        <v>0.73622047244094402</v>
-      </c>
-      <c r="N11">
-        <v>0.103807111850839</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12">
-        <v>0.89482935055120305</v>
-      </c>
-      <c r="C12">
-        <v>0.59763213055989794</v>
-      </c>
-      <c r="D12">
-        <v>0.71481999161050602</v>
-      </c>
-      <c r="E12">
-        <v>0.107328979494343</v>
-      </c>
-      <c r="F12">
-        <v>0.104145657267431</v>
-      </c>
-      <c r="G12">
-        <v>0.10025311457335701</v>
-      </c>
-      <c r="H12">
-        <v>0.10141868087702401</v>
-      </c>
-      <c r="I12">
-        <v>0.106722352971674</v>
-      </c>
-      <c r="J12">
-        <v>0.10010013843217801</v>
-      </c>
-      <c r="K12">
-        <v>0.103191352122153</v>
-      </c>
-      <c r="L12">
-        <v>0.105098097705886</v>
-      </c>
-      <c r="M12">
-        <v>0.10325806928477201</v>
-      </c>
-      <c r="N12">
-        <v>0.103807111850839</v>
-      </c>
-      <c r="O12">
-        <f>AVERAGE(E12:N12)</f>
-        <v>0.10353235545796569</v>
-      </c>
-      <c r="P12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13">
-        <v>0.92805755395683398</v>
-      </c>
-      <c r="C13">
-        <v>0.67819148936170204</v>
-      </c>
-      <c r="D13">
-        <v>0.77272727272727204</v>
-      </c>
-      <c r="E13">
-        <v>0.107328979494343</v>
-      </c>
-      <c r="F13">
-        <v>0.104145657267431</v>
-      </c>
-      <c r="G13">
-        <v>0.10025311457335701</v>
-      </c>
-      <c r="H13">
-        <v>0.10141868087702401</v>
-      </c>
-      <c r="I13">
-        <v>0.106722352971674</v>
-      </c>
-      <c r="J13">
-        <v>0.10010013843217801</v>
-      </c>
-      <c r="K13">
-        <v>0.103191352122153</v>
-      </c>
-      <c r="L13">
-        <v>0.105098097705886</v>
-      </c>
-      <c r="M13">
-        <v>0.10325806928477201</v>
-      </c>
-      <c r="N13">
-        <v>0.103807111850839</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14">
-        <v>-8.79219211873431E-4</v>
-      </c>
-      <c r="C14">
-        <v>1.16607453789076E-2</v>
-      </c>
-      <c r="D14">
-        <v>8.3684075948799695E-3</v>
-      </c>
-      <c r="E14" t="s">
-        <v>15</v>
-      </c>
-      <c r="F14" t="s">
-        <v>15</v>
-      </c>
-      <c r="G14" t="s">
-        <v>15</v>
-      </c>
-      <c r="H14" t="s">
-        <v>15</v>
-      </c>
-      <c r="I14" t="s">
-        <v>15</v>
-      </c>
-      <c r="J14" t="s">
-        <v>15</v>
-      </c>
-      <c r="K14" t="s">
-        <v>15</v>
-      </c>
-      <c r="L14" t="s">
-        <v>15</v>
-      </c>
-      <c r="M14" t="s">
-        <v>15</v>
-      </c>
-      <c r="N14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E15">
-        <v>3281</v>
-      </c>
-      <c r="F15">
-        <v>1735</v>
-      </c>
-      <c r="G15">
-        <v>2578</v>
-      </c>
-      <c r="H15">
-        <v>1915</v>
-      </c>
-      <c r="I15">
-        <v>2267</v>
-      </c>
-      <c r="J15">
-        <v>1645</v>
-      </c>
-      <c r="K15">
-        <v>1921</v>
-      </c>
-      <c r="L15">
-        <v>1725</v>
-      </c>
-      <c r="M15">
-        <v>3127</v>
-      </c>
-      <c r="N15">
-        <v>2379</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A16" t="s">
-        <v>17</v>
-      </c>
-      <c r="E16">
-        <v>648</v>
-      </c>
-      <c r="F16">
-        <v>352</v>
-      </c>
-      <c r="G16">
-        <v>505</v>
-      </c>
-      <c r="H16">
-        <v>381</v>
-      </c>
-      <c r="I16">
-        <v>464</v>
-      </c>
-      <c r="J16">
-        <v>296</v>
-      </c>
-      <c r="K16">
-        <v>366</v>
-      </c>
-      <c r="L16">
-        <v>343</v>
-      </c>
-      <c r="M16">
-        <v>632</v>
-      </c>
-      <c r="N16">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="17" spans="5:14" x14ac:dyDescent="0.15">
-      <c r="E17">
-        <v>5.0632716049382704</v>
-      </c>
-      <c r="F17">
-        <v>4.9289772727272698</v>
-      </c>
-      <c r="G17">
-        <v>5.1049504950494997</v>
-      </c>
-      <c r="H17">
-        <v>5.0262467191600999</v>
-      </c>
-      <c r="I17">
-        <v>4.88577586206896</v>
-      </c>
-      <c r="J17">
-        <v>5.5574324324324298</v>
-      </c>
-      <c r="K17">
-        <v>5.24863387978142</v>
-      </c>
-      <c r="L17">
-        <v>5.0291545189504303</v>
-      </c>
-      <c r="M17">
-        <v>4.9477848101265796</v>
-      </c>
-      <c r="N17">
-        <v>5.0402542372881296</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P17"/>
-  <sheetViews>
-    <sheetView zoomScale="82" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="14" width="20.33203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>0.87223587223587196</v>
-      </c>
-      <c r="C2">
-        <v>0.46833773087071201</v>
-      </c>
-      <c r="D2">
-        <v>0.60944206008583601</v>
-      </c>
-      <c r="E2">
-        <v>0.10167341722998501</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>0.893081761006289</v>
-      </c>
-      <c r="C3">
-        <v>0.66200466200466201</v>
-      </c>
-      <c r="D3">
-        <v>0.76037483266398898</v>
-      </c>
-      <c r="F3">
-        <v>9.2405433057163006E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>0.87731481481481399</v>
-      </c>
-      <c r="C4">
-        <v>0.61626016260162597</v>
-      </c>
-      <c r="D4">
-        <v>0.72397325692454595</v>
-      </c>
-      <c r="G4">
-        <v>9.2718050920796602E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>0.91329479768786104</v>
-      </c>
-      <c r="C5">
-        <v>0.67234042553191398</v>
-      </c>
-      <c r="D5">
-        <v>0.77450980392156799</v>
-      </c>
-      <c r="H5">
-        <v>8.7542792370790795E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>0.93139841688654301</v>
-      </c>
-      <c r="C6">
-        <v>0.63035714285714195</v>
-      </c>
-      <c r="D6">
-        <v>0.75186368477103305</v>
-      </c>
-      <c r="I6">
-        <v>9.82507228500486E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>0.94604316546762501</v>
-      </c>
-      <c r="C7">
-        <v>0.69946808510638303</v>
-      </c>
-      <c r="D7">
-        <v>0.80428134556574904</v>
-      </c>
-      <c r="J7">
-        <v>8.3943500284892905E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>0.90882352941176403</v>
-      </c>
-      <c r="C8">
-        <v>0.67467248908296895</v>
-      </c>
-      <c r="D8">
-        <v>0.77443609022556303</v>
-      </c>
-      <c r="K8">
-        <v>8.6305213928499006E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>0.91147540983606501</v>
-      </c>
-      <c r="C9">
-        <v>0.65721040189125202</v>
-      </c>
-      <c r="D9">
-        <v>0.76373626373626302</v>
-      </c>
-      <c r="L9">
-        <v>8.9839515632317499E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>0.90413533834586401</v>
-      </c>
-      <c r="C10">
-        <v>0.61273885350318402</v>
-      </c>
-      <c r="D10">
-        <v>0.73044798785117604</v>
-      </c>
-      <c r="M10">
-        <v>9.4259501360683701E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>0.91764705882352904</v>
-      </c>
-      <c r="C11">
-        <v>0.67125645438898396</v>
-      </c>
-      <c r="D11">
-        <v>0.77534791252485002</v>
-      </c>
-      <c r="N11">
-        <v>9.1864021152405703E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12">
-        <v>0.907545016451623</v>
-      </c>
-      <c r="C12">
-        <v>0.63646464078388298</v>
-      </c>
-      <c r="D12">
-        <v>0.74684132382705704</v>
-      </c>
-      <c r="E12">
-        <v>0.10167341722998501</v>
-      </c>
-      <c r="F12">
-        <v>9.2405433057163006E-2</v>
-      </c>
-      <c r="G12">
-        <v>9.2718050920796602E-2</v>
-      </c>
-      <c r="H12">
-        <v>8.7542792370790795E-2</v>
-      </c>
-      <c r="I12">
-        <v>9.82507228500486E-2</v>
-      </c>
-      <c r="J12">
-        <v>8.3943500284892905E-2</v>
-      </c>
-      <c r="K12">
-        <v>8.6305213928499006E-2</v>
-      </c>
-      <c r="L12">
-        <v>8.9839515632317499E-2</v>
-      </c>
-      <c r="M12">
-        <v>9.4259501360683701E-2</v>
-      </c>
-      <c r="N12">
-        <v>9.1864021152405703E-2</v>
-      </c>
-      <c r="O12">
-        <f>AVERAGE(E12:N12)</f>
-        <v>9.1880216878758275E-2</v>
-      </c>
-      <c r="P12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13">
-        <v>0.94604316546762501</v>
-      </c>
-      <c r="C13">
-        <v>0.69946808510638303</v>
-      </c>
-      <c r="D13">
-        <v>0.80428134556574904</v>
-      </c>
-      <c r="E13">
-        <v>0.10167341722998501</v>
-      </c>
-      <c r="F13">
-        <v>9.2405433057163006E-2</v>
-      </c>
-      <c r="G13">
-        <v>9.2718050920796602E-2</v>
-      </c>
-      <c r="H13">
-        <v>8.7542792370790795E-2</v>
-      </c>
-      <c r="I13">
-        <v>9.82507228500486E-2</v>
-      </c>
-      <c r="J13">
-        <v>8.3943500284892905E-2</v>
-      </c>
-      <c r="K13">
-        <v>8.6305213928499006E-2</v>
-      </c>
-      <c r="L13">
-        <v>8.9839515632317499E-2</v>
-      </c>
-      <c r="M13">
-        <v>9.4259501360683701E-2</v>
-      </c>
-      <c r="N13">
-        <v>9.1864021152405703E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14">
-        <v>3.9885432698484099E-3</v>
-      </c>
-      <c r="C14">
-        <v>1.0680401100028099E-2</v>
-      </c>
-      <c r="D14">
-        <v>9.3010685577377301E-3</v>
-      </c>
-      <c r="E14" t="s">
-        <v>15</v>
-      </c>
-      <c r="F14" t="s">
-        <v>15</v>
-      </c>
-      <c r="G14" t="s">
-        <v>15</v>
-      </c>
-      <c r="H14" t="s">
-        <v>15</v>
-      </c>
-      <c r="I14" t="s">
-        <v>15</v>
-      </c>
-      <c r="J14" t="s">
-        <v>15</v>
-      </c>
-      <c r="K14" t="s">
-        <v>15</v>
-      </c>
-      <c r="L14" t="s">
-        <v>15</v>
-      </c>
-      <c r="M14" t="s">
-        <v>15</v>
-      </c>
-      <c r="N14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E15">
-        <v>3281</v>
-      </c>
-      <c r="F15">
-        <v>1735</v>
-      </c>
-      <c r="G15">
-        <v>2578</v>
-      </c>
-      <c r="H15">
-        <v>1915</v>
-      </c>
-      <c r="I15">
-        <v>2267</v>
-      </c>
-      <c r="J15">
-        <v>1645</v>
-      </c>
-      <c r="K15">
-        <v>1921</v>
-      </c>
-      <c r="L15">
-        <v>1725</v>
-      </c>
-      <c r="M15">
-        <v>3127</v>
-      </c>
-      <c r="N15">
-        <v>2379</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A16" t="s">
-        <v>17</v>
-      </c>
-      <c r="E16">
-        <v>648</v>
-      </c>
-      <c r="F16">
-        <v>352</v>
-      </c>
-      <c r="G16">
-        <v>505</v>
-      </c>
-      <c r="H16">
-        <v>381</v>
-      </c>
-      <c r="I16">
-        <v>464</v>
-      </c>
-      <c r="J16">
-        <v>296</v>
-      </c>
-      <c r="K16">
-        <v>366</v>
-      </c>
-      <c r="L16">
-        <v>343</v>
-      </c>
-      <c r="M16">
-        <v>632</v>
-      </c>
-      <c r="N16">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="17" spans="5:14" x14ac:dyDescent="0.15">
-      <c r="E17">
-        <v>5.0632716049382704</v>
-      </c>
-      <c r="F17">
-        <v>4.9289772727272698</v>
-      </c>
-      <c r="G17">
-        <v>5.1049504950494997</v>
-      </c>
-      <c r="H17">
-        <v>5.0262467191600999</v>
-      </c>
-      <c r="I17">
-        <v>4.88577586206896</v>
-      </c>
-      <c r="J17">
-        <v>5.5574324324324298</v>
-      </c>
-      <c r="K17">
-        <v>5.24863387978142</v>
-      </c>
-      <c r="L17">
-        <v>5.0291545189504303</v>
-      </c>
-      <c r="M17">
-        <v>4.9477848101265796</v>
-      </c>
-      <c r="N17">
-        <v>5.0402542372881296</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O16"/>
@@ -5605,7 +3364,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -7100,20 +4859,21 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O17"/>
+  <dimension ref="A1:P17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="15" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="14" width="20.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -7124,619 +4884,444 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N1" t="s">
-        <v>11</v>
-      </c>
-      <c r="O1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.74594195769798299</v>
+        <v>0.73913043478260798</v>
       </c>
       <c r="C2">
-        <v>0.55600366636113596</v>
+        <v>0.31398416886543501</v>
       </c>
       <c r="D2">
-        <v>0.63711794979518899</v>
+        <v>0.44074074074073999</v>
       </c>
       <c r="E2">
-        <f>AVERAGE(F2:O2)</f>
-        <v>0.15012857655752551</v>
-      </c>
-      <c r="F2">
-        <v>0.149558107610235</v>
-      </c>
-      <c r="G2">
-        <v>0.15031446174053401</v>
-      </c>
-      <c r="H2">
-        <v>0.15037648510677301</v>
-      </c>
-      <c r="I2">
-        <v>0.15022658025507801</v>
-      </c>
-      <c r="J2">
-        <v>0.150201982735233</v>
-      </c>
-      <c r="K2">
-        <v>0.14982507749948501</v>
-      </c>
-      <c r="L2">
-        <v>0.150160857824364</v>
-      </c>
-      <c r="M2">
-        <v>0.150199984007093</v>
-      </c>
-      <c r="N2">
-        <v>0.149585494433359</v>
-      </c>
-      <c r="O2">
-        <v>0.15083673436310099</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
+        <v>0.155789894452731</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.74207770735739798</v>
+        <v>0.87804878048780399</v>
       </c>
       <c r="C3">
-        <v>0.55252359458350397</v>
+        <v>0.41958041958041897</v>
       </c>
       <c r="D3">
-        <v>0.633423497589086</v>
-      </c>
-      <c r="E3">
-        <f t="shared" ref="E3:E11" si="0">AVERAGE(F3:O3)</f>
-        <v>0.14983144596940512</v>
+        <v>0.56782334384858002</v>
       </c>
       <c r="F3">
-        <v>0.148380980912311</v>
-      </c>
-      <c r="G3">
-        <v>0.15057794096052801</v>
-      </c>
-      <c r="H3">
-        <v>0.14980711801597099</v>
-      </c>
-      <c r="I3">
-        <v>0.14993375107203799</v>
-      </c>
-      <c r="J3">
-        <v>0.15018391780016399</v>
-      </c>
-      <c r="K3">
-        <v>0.15075439970875501</v>
-      </c>
-      <c r="L3">
-        <v>0.14989742376419099</v>
-      </c>
-      <c r="M3">
-        <v>0.15061362827951799</v>
-      </c>
-      <c r="N3">
-        <v>0.14833385321117001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
+        <v>0.15217442740933301</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.74109186008499495</v>
+        <v>0.85460992907801403</v>
       </c>
       <c r="C4">
-        <v>0.55441428222059097</v>
+        <v>0.39186991869918603</v>
       </c>
       <c r="D4">
-        <v>0.634303301622831</v>
-      </c>
-      <c r="E4">
-        <f t="shared" si="0"/>
-        <v>0.15206483690904088</v>
-      </c>
-      <c r="F4">
-        <v>0.15213827790826101</v>
+        <v>0.53734671125975397</v>
       </c>
       <c r="G4">
-        <v>0.15209740405345101</v>
-      </c>
-      <c r="H4">
-        <v>0.15248771706207201</v>
-      </c>
-      <c r="I4">
-        <v>0.15215055361813901</v>
-      </c>
-      <c r="J4">
-        <v>0.15157302757785501</v>
-      </c>
-      <c r="K4">
-        <v>0.15160710729304799</v>
-      </c>
-      <c r="L4">
-        <v>0.15234881501029299</v>
-      </c>
-      <c r="M4">
-        <v>0.152115792749208</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
+        <v>0.14754855238353001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.74174614820249396</v>
+        <v>0.84251968503937003</v>
       </c>
       <c r="C5">
-        <v>0.551554828150572</v>
+        <v>0.45531914893616998</v>
       </c>
       <c r="D5">
-        <v>0.63266583229036299</v>
-      </c>
-      <c r="E5">
-        <f t="shared" si="0"/>
-        <v>0.15225460472413901</v>
-      </c>
-      <c r="F5">
-        <v>0.152257499507921</v>
-      </c>
-      <c r="G5">
-        <v>0.152164490806316</v>
+        <v>0.59116022099447496</v>
       </c>
       <c r="H5">
-        <v>0.152094100325499</v>
-      </c>
-      <c r="I5">
-        <v>0.15236368174146001</v>
-      </c>
-      <c r="J5">
-        <v>0.151706817578936</v>
-      </c>
-      <c r="K5">
-        <v>0.15273189636337001</v>
-      </c>
-      <c r="L5">
-        <v>0.152463746745471</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
+        <v>0.14777227859327599</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.73826638477801199</v>
+        <v>0.83629893238434105</v>
       </c>
       <c r="C6">
-        <v>0.54426433915211903</v>
+        <v>0.41964285714285698</v>
       </c>
       <c r="D6">
-        <v>0.62659249955140806</v>
-      </c>
-      <c r="E6">
-        <f t="shared" si="0"/>
-        <v>0.15098661889127299</v>
-      </c>
-      <c r="F6">
-        <v>0.14878312589307399</v>
-      </c>
-      <c r="G6">
-        <v>0.15210527272382901</v>
-      </c>
-      <c r="H6">
-        <v>0.149320276959447</v>
+        <v>0.55885850178359098</v>
       </c>
       <c r="I6">
-        <v>0.152614625449464</v>
-      </c>
-      <c r="J6">
-        <v>0.15052461487944199</v>
-      </c>
-      <c r="K6">
-        <v>0.152571797442382</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
+        <v>0.14971155167830599</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.73556525958272601</v>
+        <v>0.83098591549295697</v>
       </c>
       <c r="C7">
-        <v>0.53531073446327604</v>
+        <v>0.47074468085106302</v>
       </c>
       <c r="D7">
-        <v>0.61966073983241299</v>
-      </c>
-      <c r="E7">
-        <f t="shared" si="0"/>
-        <v>0.14666684358633</v>
-      </c>
-      <c r="F7">
-        <v>0.14739390191825799</v>
-      </c>
-      <c r="G7">
-        <v>0.145987818586652</v>
-      </c>
-      <c r="H7">
-        <v>0.147694008072175</v>
-      </c>
-      <c r="I7">
-        <v>0.14653628797979301</v>
+        <v>0.60101867572156198</v>
       </c>
       <c r="J7">
-        <v>0.14572220137477199</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
+        <v>0.147159271919484</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.73851806491120597</v>
+        <v>0.80308880308880304</v>
       </c>
       <c r="C8">
-        <v>0.53080985915492895</v>
+        <v>0.45414847161571997</v>
       </c>
       <c r="D8">
-        <v>0.61766965428937204</v>
-      </c>
-      <c r="E8">
-        <f t="shared" si="0"/>
-        <v>0.14847793810670548</v>
-      </c>
-      <c r="F8">
-        <v>0.14905213464862499</v>
-      </c>
-      <c r="G8">
-        <v>0.14756310183596999</v>
-      </c>
-      <c r="H8">
-        <v>0.14933702735836499</v>
-      </c>
-      <c r="I8">
-        <v>0.14795948858386199</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
+        <v>0.58019525801952498</v>
+      </c>
+      <c r="K8">
+        <v>0.150195922170371</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0.73790951638065505</v>
+        <v>0.86403508771929804</v>
       </c>
       <c r="C9">
-        <v>0.524972253052164</v>
+        <v>0.46572104018912502</v>
       </c>
       <c r="D9">
-        <v>0.61348897535667901</v>
-      </c>
-      <c r="E9">
-        <f t="shared" si="0"/>
-        <v>0.14667637127644567</v>
-      </c>
-      <c r="F9">
-        <v>0.147793633687129</v>
-      </c>
-      <c r="G9">
-        <v>0.145755288354248</v>
-      </c>
-      <c r="H9">
-        <v>0.14648019178796001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
+        <v>0.60522273425499196</v>
+      </c>
+      <c r="L9">
+        <v>0.145667550854433</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
-        <v>0.74371257485029896</v>
+        <v>0.84530386740331398</v>
       </c>
       <c r="C10">
-        <v>0.52316764953664696</v>
+        <v>0.38980891719745198</v>
       </c>
       <c r="D10">
-        <v>0.61424332344213595</v>
-      </c>
-      <c r="E10">
-        <f t="shared" si="0"/>
-        <v>0.15088350763853201</v>
-      </c>
-      <c r="F10">
-        <v>0.15101350166997801</v>
-      </c>
-      <c r="G10">
-        <v>0.150753513607086</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
+        <v>0.53356582388840401</v>
+      </c>
+      <c r="M10">
+        <v>0.15357198729621299</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
-        <v>0.73372781065088699</v>
+        <v>0.84912280701754295</v>
       </c>
       <c r="C11">
-        <v>0.49076517150395699</v>
+        <v>0.416523235800344</v>
       </c>
       <c r="D11">
-        <v>0.58814229249011796</v>
-      </c>
-      <c r="E11">
-        <f t="shared" si="0"/>
-        <v>0.14351986935295</v>
-      </c>
-      <c r="F11">
-        <v>0.14351986935295</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
+        <v>0.55889145496535697</v>
+      </c>
+      <c r="N11">
+        <v>0.14893071236722699</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>13</v>
       </c>
       <c r="B12">
-        <v>0.73985572844966596</v>
+        <v>0.83431442424940505</v>
       </c>
       <c r="C12">
-        <v>0.53637863781788997</v>
+        <v>0.419734285887777</v>
       </c>
       <c r="D12">
-        <v>0.62173080662596003</v>
+        <v>0.55748234654769802</v>
+      </c>
+      <c r="E12">
+        <v>0.155789894452731</v>
       </c>
       <c r="F12">
-        <v>0.148989103310874</v>
+        <v>0.15217442740933301</v>
       </c>
       <c r="G12">
-        <v>0.14970214362984599</v>
+        <v>0.14754855238353001</v>
       </c>
       <c r="H12">
-        <v>0.14969961558603301</v>
+        <v>0.14777227859327599</v>
       </c>
       <c r="I12">
-        <v>0.15025499552854801</v>
+        <v>0.14971155167830599</v>
       </c>
       <c r="J12">
-        <v>0.14998542699106701</v>
+        <v>0.147159271919484</v>
       </c>
       <c r="K12">
-        <v>0.151498055661408</v>
+        <v>0.150195922170371</v>
       </c>
       <c r="L12">
-        <v>0.15121771083607999</v>
+        <v>0.145667550854433</v>
       </c>
       <c r="M12">
-        <v>0.15097646834527301</v>
+        <v>0.15357198729621299</v>
       </c>
       <c r="N12">
-        <v>0.14895967382226499</v>
+        <v>0.14893071236722699</v>
       </c>
       <c r="O12">
-        <v>0.15083673436310099</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
+        <f>AVERAGE(E12:N12)</f>
+        <v>0.1498522149124904</v>
+      </c>
+      <c r="P12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>14</v>
       </c>
       <c r="B13">
-        <v>0.74594195769798299</v>
+        <v>0.87804878048780399</v>
       </c>
       <c r="C13">
-        <v>0.55600366636113596</v>
+        <v>0.47074468085106302</v>
       </c>
       <c r="D13">
-        <v>0.63711794979518899</v>
+        <v>0.60522273425499196</v>
       </c>
       <c r="E13">
-        <f>SLOPE(E1:E10,A1:A10)</f>
-        <v>-3.2011764162220293E-4</v>
+        <v>0.155789894452731</v>
       </c>
       <c r="F13">
-        <v>0.152257499507921</v>
+        <v>0.15217442740933301</v>
       </c>
       <c r="G13">
-        <v>0.152164490806316</v>
+        <v>0.14754855238353001</v>
       </c>
       <c r="H13">
-        <v>0.15248771706207201</v>
+        <v>0.14777227859327599</v>
       </c>
       <c r="I13">
-        <v>0.152614625449464</v>
+        <v>0.14971155167830599</v>
       </c>
       <c r="J13">
-        <v>0.151706817578936</v>
+        <v>0.147159271919484</v>
       </c>
       <c r="K13">
-        <v>0.15273189636337001</v>
+        <v>0.150195922170371</v>
       </c>
       <c r="L13">
-        <v>0.152463746745471</v>
+        <v>0.145667550854433</v>
       </c>
       <c r="M13">
-        <v>0.152115792749208</v>
+        <v>0.15357198729621299</v>
       </c>
       <c r="N13">
-        <v>0.149585494433359</v>
-      </c>
-      <c r="O13">
-        <v>0.15083673436310099</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
+        <v>0.14893071236722699</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>18</v>
       </c>
       <c r="B14">
-        <v>-7.6836572463276701E-4</v>
+        <v>4.1468914484019499E-3</v>
       </c>
       <c r="C14">
-        <v>-6.127495312488E-3</v>
+        <v>6.8563423329088304E-3</v>
       </c>
       <c r="D14">
-        <v>-4.4305094534970403E-3</v>
-      </c>
-      <c r="F14">
-        <v>-4.1603053739549601E-4</v>
-      </c>
-      <c r="G14">
-        <v>-4.6595045012099199E-4</v>
-      </c>
-      <c r="H14">
-        <v>-5.5689829589833297E-4</v>
-      </c>
-      <c r="I14">
-        <v>-4.69004620243461E-4</v>
-      </c>
-      <c r="J14">
-        <v>-6.06943587525523E-4</v>
-      </c>
-      <c r="K14">
-        <v>7.4709365404108897E-4</v>
-      </c>
-      <c r="L14">
-        <v>9.36005800942285E-4</v>
-      </c>
-      <c r="M14">
-        <v>9.5790437105748496E-4</v>
-      </c>
-      <c r="N14">
-        <v>-1.25164122218848E-3</v>
-      </c>
-      <c r="O14" t="s">
+        <v>7.1042375047856597E-3</v>
+      </c>
+      <c r="E14" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="F14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" t="s">
+        <v>15</v>
+      </c>
+      <c r="J14" t="s">
+        <v>15</v>
+      </c>
+      <c r="K14" t="s">
+        <v>15</v>
+      </c>
+      <c r="L14" t="s">
+        <v>15</v>
+      </c>
+      <c r="M14" t="s">
+        <v>15</v>
+      </c>
+      <c r="N14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>16</v>
       </c>
+      <c r="E15">
+        <v>3281</v>
+      </c>
       <c r="F15">
-        <v>3281</v>
+        <v>1735</v>
       </c>
       <c r="G15">
-        <v>1735</v>
+        <v>2578</v>
       </c>
       <c r="H15">
-        <v>2578</v>
+        <v>1915</v>
       </c>
       <c r="I15">
-        <v>1915</v>
+        <v>2267</v>
       </c>
       <c r="J15">
-        <v>2267</v>
+        <v>1645</v>
       </c>
       <c r="K15">
-        <v>1645</v>
+        <v>1921</v>
       </c>
       <c r="L15">
-        <v>1921</v>
+        <v>1725</v>
       </c>
       <c r="M15">
-        <v>1725</v>
+        <v>3127</v>
       </c>
       <c r="N15">
-        <v>3127</v>
-      </c>
-      <c r="O15">
         <v>2379</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>17</v>
       </c>
+      <c r="E16">
+        <v>648</v>
+      </c>
       <c r="F16">
-        <v>648</v>
+        <v>352</v>
       </c>
       <c r="G16">
-        <v>352</v>
+        <v>505</v>
       </c>
       <c r="H16">
-        <v>505</v>
+        <v>381</v>
       </c>
       <c r="I16">
-        <v>381</v>
+        <v>464</v>
       </c>
       <c r="J16">
-        <v>464</v>
+        <v>296</v>
       </c>
       <c r="K16">
-        <v>296</v>
+        <v>366</v>
       </c>
       <c r="L16">
-        <v>366</v>
+        <v>343</v>
       </c>
       <c r="M16">
-        <v>343</v>
+        <v>632</v>
       </c>
       <c r="N16">
-        <v>632</v>
-      </c>
-      <c r="O16">
         <v>472</v>
       </c>
     </row>
-    <row r="17" spans="6:15" x14ac:dyDescent="0.15">
+    <row r="17" spans="5:14" x14ac:dyDescent="0.15">
+      <c r="E17">
+        <v>5.0632716049382704</v>
+      </c>
       <c r="F17">
-        <v>5.0632716049382704</v>
+        <v>4.9289772727272698</v>
       </c>
       <c r="G17">
-        <v>4.9289772727272698</v>
+        <v>5.1049504950494997</v>
       </c>
       <c r="H17">
-        <v>5.1049504950494997</v>
+        <v>5.0262467191600999</v>
       </c>
       <c r="I17">
-        <v>5.0262467191600999</v>
+        <v>4.88577586206896</v>
       </c>
       <c r="J17">
-        <v>4.88577586206896</v>
+        <v>5.5574324324324298</v>
       </c>
       <c r="K17">
-        <v>5.5574324324324298</v>
+        <v>5.24863387978142</v>
       </c>
       <c r="L17">
-        <v>5.24863387978142</v>
+        <v>5.0291545189504303</v>
       </c>
       <c r="M17">
-        <v>5.0291545189504303</v>
+        <v>4.9477848101265796</v>
       </c>
       <c r="N17">
-        <v>4.9477848101265796</v>
-      </c>
-      <c r="O17">
         <v>5.0402542372881296</v>
       </c>
     </row>
@@ -7748,21 +5333,20 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O17"/>
+  <dimension ref="A1:P17"/>
   <sheetViews>
-    <sheetView zoomScale="86" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+    <sheetView tabSelected="1" zoomScale="82" workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15" customWidth="1"/>
-    <col min="6" max="16" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="14" width="20.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -7773,615 +5357,444 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N1" t="s">
-        <v>11</v>
-      </c>
-      <c r="O1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.79311279826464198</v>
+        <v>0.82508250825082496</v>
       </c>
       <c r="C2">
-        <v>0.53620531622364798</v>
+        <v>0.32981530343007898</v>
       </c>
       <c r="D2">
-        <v>0.63983375259761499</v>
+        <v>0.47125353440150702</v>
       </c>
       <c r="E2">
-        <f>AVERAGE(F2:O2)</f>
-        <v>0.14130589840900509</v>
-      </c>
-      <c r="F2">
-        <v>0.14048995857299901</v>
-      </c>
-      <c r="G2">
-        <v>0.14183343054321901</v>
-      </c>
-      <c r="H2">
-        <v>0.14130886926900901</v>
-      </c>
-      <c r="I2">
-        <v>0.14144266688007701</v>
-      </c>
-      <c r="J2">
-        <v>0.14135890737277201</v>
-      </c>
-      <c r="K2">
-        <v>0.14118421582715401</v>
-      </c>
-      <c r="L2">
-        <v>0.14138917942964099</v>
-      </c>
-      <c r="M2">
-        <v>0.14159094365101099</v>
-      </c>
-      <c r="N2">
-        <v>0.14072353495401899</v>
-      </c>
-      <c r="O2">
-        <v>0.14173727759015001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
+        <v>0.129661013461986</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.78809957498481997</v>
+        <v>0.91266375545851497</v>
       </c>
       <c r="C3">
-        <v>0.53262207632334801</v>
+        <v>0.487179487179487</v>
       </c>
       <c r="D3">
-        <v>0.63565132223310405</v>
-      </c>
-      <c r="E3">
-        <f t="shared" ref="E3:E10" si="0">AVERAGE(F3:O3)</f>
-        <v>0.140391664347705</v>
+        <v>0.63525835866261404</v>
       </c>
       <c r="F3">
-        <v>0.139830323393909</v>
-      </c>
-      <c r="G3">
-        <v>0.14023012039780899</v>
-      </c>
-      <c r="H3">
-        <v>0.14073754370007699</v>
-      </c>
-      <c r="I3">
-        <v>0.14061808207602799</v>
-      </c>
-      <c r="J3">
-        <v>0.14115104316136601</v>
-      </c>
-      <c r="K3">
-        <v>0.14055279326577599</v>
-      </c>
-      <c r="L3">
-        <v>0.14054359316118301</v>
-      </c>
-      <c r="M3">
-        <v>0.14005956484607901</v>
-      </c>
-      <c r="N3">
-        <v>0.13980191512711801</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
+        <v>0.13073958563204299</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.78651280201947305</v>
+        <v>0.87619047619047596</v>
       </c>
       <c r="C4">
-        <v>0.53338224504768805</v>
+        <v>0.448780487804878</v>
       </c>
       <c r="D4">
-        <v>0.6356747303993</v>
-      </c>
-      <c r="E4">
-        <f t="shared" si="0"/>
-        <v>0.14247662718154339</v>
-      </c>
-      <c r="F4">
-        <v>0.14218253373902401</v>
+        <v>0.59354838709677404</v>
       </c>
       <c r="G4">
-        <v>0.14253030654544699</v>
-      </c>
-      <c r="H4">
-        <v>0.14257481446284401</v>
-      </c>
-      <c r="I4">
-        <v>0.142796067013919</v>
-      </c>
-      <c r="J4">
-        <v>0.14222084001721499</v>
-      </c>
-      <c r="K4">
-        <v>0.142010112183937</v>
-      </c>
-      <c r="L4">
-        <v>0.142960988977653</v>
-      </c>
-      <c r="M4">
-        <v>0.14253735451230801</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
+        <v>0.12734576515983201</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.78970826580226905</v>
+        <v>0.89105058365758705</v>
       </c>
       <c r="C5">
-        <v>0.53164211674849904</v>
+        <v>0.48723404255319103</v>
       </c>
       <c r="D5">
-        <v>0.63547440495598295</v>
-      </c>
-      <c r="E5">
-        <f t="shared" si="0"/>
-        <v>0.14151623540595787</v>
-      </c>
-      <c r="F5">
-        <v>0.14188650348649801</v>
-      </c>
-      <c r="G5">
-        <v>0.14133687339697401</v>
+        <v>0.62998624484181498</v>
       </c>
       <c r="H5">
-        <v>0.14139351309829301</v>
-      </c>
-      <c r="I5">
-        <v>0.141396709422033</v>
-      </c>
-      <c r="J5">
-        <v>0.14108650777982201</v>
-      </c>
-      <c r="K5">
-        <v>0.14203076142943599</v>
-      </c>
-      <c r="L5">
-        <v>0.14148277922864899</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
+        <v>0.120584930407693</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.78551401869158799</v>
+        <v>0.88153310104529603</v>
       </c>
       <c r="C6">
-        <v>0.52400249376558605</v>
+        <v>0.45178571428571401</v>
       </c>
       <c r="D6">
-        <v>0.62864622288705996</v>
-      </c>
-      <c r="E6">
-        <f t="shared" si="0"/>
-        <v>0.14187808570354435</v>
-      </c>
-      <c r="F6">
-        <v>0.14031581390822601</v>
-      </c>
-      <c r="G6">
-        <v>0.142796764151776</v>
-      </c>
-      <c r="H6">
-        <v>0.14059636330611799</v>
+        <v>0.59740259740259705</v>
       </c>
       <c r="I6">
-        <v>0.14317761385160399</v>
-      </c>
-      <c r="J6">
-        <v>0.141408063476225</v>
-      </c>
-      <c r="K6">
-        <v>0.14297389552731701</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
+        <v>0.125489227185964</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.78494623655913898</v>
+        <v>0.90731707317073096</v>
       </c>
       <c r="C7">
-        <v>0.51553672316384103</v>
+        <v>0.49468085106382897</v>
       </c>
       <c r="D7">
-        <v>0.62233589087809005</v>
-      </c>
-      <c r="E7">
-        <f t="shared" si="0"/>
-        <v>0.138597540942518</v>
-      </c>
-      <c r="F7">
-        <v>0.13863207037985301</v>
-      </c>
-      <c r="G7">
-        <v>0.138457681534748</v>
-      </c>
-      <c r="H7">
-        <v>0.139153514083943</v>
-      </c>
-      <c r="I7">
-        <v>0.138944719584083</v>
+        <v>0.64027538726333899</v>
       </c>
       <c r="J7">
-        <v>0.137799719129963</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
+        <v>0.122577235754511</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.79033356024506396</v>
+        <v>0.87854251012145701</v>
       </c>
       <c r="C8">
-        <v>0.51100352112675995</v>
+        <v>0.47379912663755402</v>
       </c>
       <c r="D8">
-        <v>0.62068965517241304</v>
-      </c>
-      <c r="E8">
-        <f t="shared" si="0"/>
-        <v>0.13874216516986626</v>
-      </c>
-      <c r="F8">
-        <v>0.13954445681771399</v>
-      </c>
-      <c r="G8">
-        <v>0.13772703242088399</v>
-      </c>
-      <c r="H8">
-        <v>0.13958231737358201</v>
-      </c>
-      <c r="I8">
-        <v>0.13811485406728499</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
+        <v>0.61560283687943196</v>
+      </c>
+      <c r="K8">
+        <v>0.11971455855315299</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0.78219533275713005</v>
+        <v>0.893805309734513</v>
       </c>
       <c r="C9">
-        <v>0.50221975582685896</v>
+        <v>0.47754137115839201</v>
       </c>
       <c r="D9">
-        <v>0.61169313957418003</v>
-      </c>
-      <c r="E9">
-        <f t="shared" si="0"/>
-        <v>0.13828840675598833</v>
-      </c>
-      <c r="F9">
-        <v>0.13934479334081401</v>
-      </c>
-      <c r="G9">
-        <v>0.13708245210721701</v>
-      </c>
-      <c r="H9">
-        <v>0.138437974819934</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
+        <v>0.62249614791987595</v>
+      </c>
+      <c r="L9">
+        <v>0.12085230013859501</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
-        <v>0.78477690288713897</v>
+        <v>0.90934844192634501</v>
       </c>
       <c r="C10">
-        <v>0.50379106992417799</v>
+        <v>0.40891719745222899</v>
       </c>
       <c r="D10">
-        <v>0.61364802462801404</v>
-      </c>
-      <c r="E10">
-        <f t="shared" si="0"/>
-        <v>0.14227905383603551</v>
-      </c>
-      <c r="F10">
-        <v>0.14195935357238601</v>
-      </c>
-      <c r="G10">
-        <v>0.142598754099685</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
+        <v>0.56414762741652003</v>
+      </c>
+      <c r="M10">
+        <v>0.126653386858117</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
-        <v>0.787610619469026</v>
+        <v>0.90378006872852201</v>
       </c>
       <c r="C11">
-        <v>0.46965699208443201</v>
+        <v>0.45266781411359702</v>
       </c>
       <c r="D11">
-        <v>0.58842975206611503</v>
-      </c>
-      <c r="F11">
-        <v>0.135204704804924</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
+        <v>0.60321100917431103</v>
+      </c>
+      <c r="N11">
+        <v>0.12142118537353799</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>13</v>
       </c>
       <c r="B12">
-        <v>0.78728101116802895</v>
+        <v>0.88793138282842698</v>
       </c>
       <c r="C12">
-        <v>0.51600623102348397</v>
+        <v>0.45124013956789499</v>
       </c>
       <c r="D12">
-        <v>0.62320768953918704</v>
+        <v>0.59731821310587896</v>
+      </c>
+      <c r="E12">
+        <v>0.129661013461986</v>
       </c>
       <c r="F12">
-        <v>0.139939051201635</v>
+        <v>0.13073958563204299</v>
       </c>
       <c r="G12">
-        <v>0.14051037946641801</v>
+        <v>0.12734576515983201</v>
       </c>
       <c r="H12">
-        <v>0.140473113764225</v>
+        <v>0.120584930407693</v>
       </c>
       <c r="I12">
-        <v>0.14092724469928999</v>
+        <v>0.125489227185964</v>
       </c>
       <c r="J12">
-        <v>0.14083751348956</v>
+        <v>0.122577235754511</v>
       </c>
       <c r="K12">
-        <v>0.141750355646724</v>
+        <v>0.11971455855315299</v>
       </c>
       <c r="L12">
-        <v>0.14159413519928099</v>
+        <v>0.12085230013859501</v>
       </c>
       <c r="M12">
-        <v>0.14139595433646601</v>
+        <v>0.126653386858117</v>
       </c>
       <c r="N12">
-        <v>0.140262725040568</v>
+        <v>0.12142118537353799</v>
       </c>
       <c r="O12">
-        <v>0.14173727759015001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
+        <f>AVERAGE(E12:N12)</f>
+        <v>0.12450391885254322</v>
+      </c>
+      <c r="P12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>14</v>
       </c>
       <c r="B13">
-        <v>0.79311279826464198</v>
+        <v>0.91266375545851497</v>
       </c>
       <c r="C13">
-        <v>0.53620531622364798</v>
+        <v>0.49468085106382897</v>
       </c>
       <c r="D13">
-        <v>0.63983375259761499</v>
+        <v>0.64027538726333899</v>
       </c>
       <c r="E13">
-        <f>SLOPE(E1:E10,A1:A10)</f>
-        <v>-2.1341282589704136E-4</v>
+        <v>0.129661013461986</v>
       </c>
       <c r="F13">
-        <v>0.14218253373902401</v>
+        <v>0.13073958563204299</v>
       </c>
       <c r="G13">
-        <v>0.142796764151776</v>
+        <v>0.12734576515983201</v>
       </c>
       <c r="H13">
-        <v>0.14257481446284401</v>
+        <v>0.120584930407693</v>
       </c>
       <c r="I13">
-        <v>0.14317761385160399</v>
+        <v>0.125489227185964</v>
       </c>
       <c r="J13">
-        <v>0.14222084001721499</v>
+        <v>0.122577235754511</v>
       </c>
       <c r="K13">
-        <v>0.14297389552731701</v>
+        <v>0.11971455855315299</v>
       </c>
       <c r="L13">
-        <v>0.142960988977653</v>
+        <v>0.12085230013859501</v>
       </c>
       <c r="M13">
-        <v>0.14253735451230801</v>
+        <v>0.126653386858117</v>
       </c>
       <c r="N13">
-        <v>0.14072353495401899</v>
-      </c>
-      <c r="O13">
-        <v>0.14173727759015001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
+        <v>0.12142118537353799</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>18</v>
       </c>
       <c r="B14">
-        <v>-5.6398520581872396E-4</v>
+        <v>4.6145743564322203E-3</v>
       </c>
       <c r="C14">
-        <v>-6.2239149431408203E-3</v>
+        <v>4.26806893248263E-3</v>
       </c>
       <c r="D14">
-        <v>-4.7711007485115803E-3</v>
-      </c>
-      <c r="F14">
-        <v>-3.3674338296426102E-4</v>
-      </c>
-      <c r="G14">
-        <v>-3.1445751262103397E-4</v>
-      </c>
-      <c r="H14">
-        <v>-4.3968385362952E-4</v>
-      </c>
-      <c r="I14">
-        <v>-4.6245059230644401E-4</v>
-      </c>
-      <c r="J14">
-        <v>-5.1883464305324198E-4</v>
-      </c>
-      <c r="K14">
-        <v>5.0573275639854097E-4</v>
-      </c>
-      <c r="L14">
-        <v>2.69819521349209E-4</v>
-      </c>
-      <c r="M14">
-        <v>4.7320543064876999E-4</v>
-      </c>
-      <c r="N14">
-        <v>-9.2161982690058797E-4</v>
-      </c>
-      <c r="O14" t="s">
+        <v>5.0563849958889899E-3</v>
+      </c>
+      <c r="E14" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="F14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" t="s">
+        <v>15</v>
+      </c>
+      <c r="J14" t="s">
+        <v>15</v>
+      </c>
+      <c r="K14" t="s">
+        <v>15</v>
+      </c>
+      <c r="L14" t="s">
+        <v>15</v>
+      </c>
+      <c r="M14" t="s">
+        <v>15</v>
+      </c>
+      <c r="N14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>16</v>
       </c>
+      <c r="E15">
+        <v>3281</v>
+      </c>
       <c r="F15">
-        <v>3281</v>
+        <v>1735</v>
       </c>
       <c r="G15">
-        <v>1735</v>
+        <v>2578</v>
       </c>
       <c r="H15">
-        <v>2578</v>
+        <v>1915</v>
       </c>
       <c r="I15">
-        <v>1915</v>
+        <v>2267</v>
       </c>
       <c r="J15">
-        <v>2267</v>
+        <v>1645</v>
       </c>
       <c r="K15">
-        <v>1645</v>
+        <v>1921</v>
       </c>
       <c r="L15">
-        <v>1921</v>
+        <v>1725</v>
       </c>
       <c r="M15">
-        <v>1725</v>
+        <v>3127</v>
       </c>
       <c r="N15">
-        <v>3127</v>
-      </c>
-      <c r="O15">
         <v>2379</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>17</v>
       </c>
+      <c r="E16">
+        <v>648</v>
+      </c>
       <c r="F16">
-        <v>648</v>
+        <v>352</v>
       </c>
       <c r="G16">
-        <v>352</v>
+        <v>505</v>
       </c>
       <c r="H16">
-        <v>505</v>
+        <v>381</v>
       </c>
       <c r="I16">
-        <v>381</v>
+        <v>464</v>
       </c>
       <c r="J16">
-        <v>464</v>
+        <v>296</v>
       </c>
       <c r="K16">
-        <v>296</v>
+        <v>366</v>
       </c>
       <c r="L16">
-        <v>366</v>
+        <v>343</v>
       </c>
       <c r="M16">
-        <v>343</v>
+        <v>632</v>
       </c>
       <c r="N16">
-        <v>632</v>
-      </c>
-      <c r="O16">
         <v>472</v>
       </c>
     </row>
-    <row r="17" spans="6:15" x14ac:dyDescent="0.15">
+    <row r="17" spans="5:14" x14ac:dyDescent="0.15">
+      <c r="E17">
+        <v>5.0632716049382704</v>
+      </c>
       <c r="F17">
-        <v>5.0632716049382704</v>
+        <v>4.9289772727272698</v>
       </c>
       <c r="G17">
-        <v>4.9289772727272698</v>
+        <v>5.1049504950494997</v>
       </c>
       <c r="H17">
-        <v>5.1049504950494997</v>
+        <v>5.0262467191600999</v>
       </c>
       <c r="I17">
-        <v>5.0262467191600999</v>
+        <v>4.88577586206896</v>
       </c>
       <c r="J17">
-        <v>4.88577586206896</v>
+        <v>5.5574324324324298</v>
       </c>
       <c r="K17">
-        <v>5.5574324324324298</v>
+        <v>5.24863387978142</v>
       </c>
       <c r="L17">
-        <v>5.24863387978142</v>
+        <v>5.0291545189504303</v>
       </c>
       <c r="M17">
-        <v>5.0291545189504303</v>
+        <v>4.9477848101265796</v>
       </c>
       <c r="N17">
-        <v>4.9477848101265796</v>
-      </c>
-      <c r="O17">
         <v>5.0402542372881296</v>
       </c>
     </row>
